--- a/biology/Zoologie/Caddo_agilis/Caddo_agilis.xlsx
+++ b/biology/Zoologie/Caddo_agilis/Caddo_agilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caddo agilis est une espèce d'opilions eupnois de la famille des Caddidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre aux États-Unis à l'Est de la ligne qui va du Tennessee à l'Ohio, au Canada au Québec et en Ontario, au Japon et en Russie dans le kraï du Primorié et l'oblast de Sakhaline[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre aux États-Unis à l'Est de la ligne qui va du Tennessee à l'Ohio, au Canada au Québec et en Ontario, au Japon et en Russie dans le kraï du Primorié et l'oblast de Sakhaline,.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caddo agilis mesure de 2,1 à 3,0 mm[2].
-Cette espèce est fréquemment parthénogénétique[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caddo agilis mesure de 2,1 à 3,0 mm.
+Cette espèce est fréquemment parthénogénétique.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Banks en 1892.
-Caddo glaucopis[3] a été placée en synonymie par Crosby en 1907[4].
+Caddo glaucopis a été placée en synonymie par Crosby en 1907.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Banks, 1892 : « A new genus of Phalangiidae. » Proceedings of the Entomological Society of Washington, vol. 2, p. 249–250 (texte intégral).</t>
         </is>
